--- a/lammps_kvm_scale_updated.xlsx
+++ b/lammps_kvm_scale_updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="7095" windowWidth="23115" windowHeight="11760"/>
+    <workbookView xWindow="9630" yWindow="4905" windowWidth="23115" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LJ-scale" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="summary-results-kvm-gdr-old" sheetId="2" r:id="rId7"/>
     <sheet name="summary-results-kvm-nogdr-old" sheetId="1" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -915,7 +915,7 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -988,7 +988,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="dashDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -1057,11 +1057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143324288"/>
-        <c:axId val="143326208"/>
+        <c:axId val="141057024"/>
+        <c:axId val="141067776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143324288"/>
+        <c:axId val="141057024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143326208"/>
+        <c:crossAx val="141067776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143326208"/>
+        <c:axId val="141067776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143324288"/>
+        <c:crossAx val="141057024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1350,7 +1350,7 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -1407,7 +1407,7 @@
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="dashDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -1461,11 +1461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143492992"/>
-        <c:axId val="143499264"/>
+        <c:axId val="141078528"/>
+        <c:axId val="141080832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143492992"/>
+        <c:axId val="141078528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143499264"/>
+        <c:crossAx val="141080832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1501,7 +1501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143499264"/>
+        <c:axId val="141080832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143492992"/>
+        <c:crossAx val="141078528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2410,11 +2410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144048128"/>
-        <c:axId val="144049664"/>
+        <c:axId val="142600448"/>
+        <c:axId val="142610432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144048128"/>
+        <c:axId val="142600448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144049664"/>
+        <c:crossAx val="142610432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +2431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144049664"/>
+        <c:axId val="142610432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144048128"/>
+        <c:crossAx val="142600448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2685,11 +2685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144082432"/>
-        <c:axId val="144083968"/>
+        <c:axId val="142655488"/>
+        <c:axId val="142657024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144082432"/>
+        <c:axId val="142655488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144083968"/>
+        <c:crossAx val="142657024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2706,7 +2706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144083968"/>
+        <c:axId val="142657024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144082432"/>
+        <c:crossAx val="142655488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,11 +2915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145104896"/>
-        <c:axId val="145106432"/>
+        <c:axId val="142756096"/>
+        <c:axId val="142766080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145104896"/>
+        <c:axId val="142756096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +2928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145106432"/>
+        <c:crossAx val="142766080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2936,7 +2936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145106432"/>
+        <c:axId val="142766080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145104896"/>
+        <c:crossAx val="142756096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3086,11 +3086,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145127680"/>
-        <c:axId val="146354176"/>
+        <c:axId val="142828288"/>
+        <c:axId val="142829824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145127680"/>
+        <c:axId val="142828288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +3099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146354176"/>
+        <c:crossAx val="142829824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3107,7 +3107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146354176"/>
+        <c:axId val="142829824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3118,7 +3118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145127680"/>
+        <c:crossAx val="142828288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3204,11 +3204,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146383616"/>
-        <c:axId val="146385152"/>
+        <c:axId val="142851072"/>
+        <c:axId val="142877440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146383616"/>
+        <c:axId val="142851072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146385152"/>
+        <c:crossAx val="142877440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3225,7 +3225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146385152"/>
+        <c:axId val="142877440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3237,7 +3237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146383616"/>
+        <c:crossAx val="142851072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3257,7 +3257,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3269,7 +3269,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3314,7 +3314,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6286500"/>
+    <xdr:ext cx="8670551" cy="6293971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3341,7 +3341,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662883" cy="6292062"/>
+    <xdr:ext cx="8670551" cy="6293971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>

--- a/lammps_kvm_scale_updated.xlsx
+++ b/lammps_kvm_scale_updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="4905" windowWidth="23115" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="10575" yWindow="2820" windowWidth="23010" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LJ-scale" sheetId="7" r:id="rId1"/>
@@ -1057,11 +1057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141057024"/>
-        <c:axId val="141067776"/>
+        <c:axId val="121571200"/>
+        <c:axId val="121577856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141057024"/>
+        <c:axId val="121571200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141067776"/>
+        <c:crossAx val="121577856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141067776"/>
+        <c:axId val="121577856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1114,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Millions of atom-timesteps per second</a:t>
                 </a:r>
               </a:p>
@@ -1134,7 +1134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141057024"/>
+        <c:crossAx val="121571200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1148,18 +1148,38 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80290921991696362"/>
-          <c:y val="0.71178620854211405"/>
-          <c:w val="0.13915744735792707"/>
-          <c:h val="0.1461245526127416"/>
+          <c:x val="0.71460468541097444"/>
+          <c:y val="0.64092833850314168"/>
+          <c:w val="0.24066194423008894"/>
+          <c:h val="0.20082061742664353"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -1461,11 +1481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141078528"/>
-        <c:axId val="141080832"/>
+        <c:axId val="121527296"/>
+        <c:axId val="121533952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141078528"/>
+        <c:axId val="121527296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141080832"/>
+        <c:crossAx val="121533952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1501,7 +1521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141080832"/>
+        <c:axId val="121533952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,37 +1534,13 @@
               <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Millions of atom-timesteps per second</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1555,7 +1551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141078528"/>
+        <c:crossAx val="121527296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1569,18 +1565,38 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80372850470218749"/>
-          <c:y val="0.71159899568694651"/>
-          <c:w val="0.13763050938123025"/>
-          <c:h val="0.14599538275369822"/>
+          <c:x val="0.71546373649183825"/>
+          <c:y val="0.63867088242134296"/>
+          <c:w val="0.24060611269583607"/>
+          <c:h val="0.20271735610802175"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -2410,11 +2426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142600448"/>
-        <c:axId val="142610432"/>
+        <c:axId val="118441472"/>
+        <c:axId val="118443008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142600448"/>
+        <c:axId val="118441472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142610432"/>
+        <c:crossAx val="118443008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +2447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142610432"/>
+        <c:axId val="118443008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142600448"/>
+        <c:crossAx val="118441472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2685,11 +2701,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142655488"/>
-        <c:axId val="142657024"/>
+        <c:axId val="118479872"/>
+        <c:axId val="118485760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142655488"/>
+        <c:axId val="118479872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142657024"/>
+        <c:crossAx val="118485760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2706,7 +2722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142657024"/>
+        <c:axId val="118485760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142655488"/>
+        <c:crossAx val="118479872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,11 +2931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142756096"/>
-        <c:axId val="142766080"/>
+        <c:axId val="123315712"/>
+        <c:axId val="123317248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142756096"/>
+        <c:axId val="123315712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +2944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142766080"/>
+        <c:crossAx val="123317248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2936,7 +2952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142766080"/>
+        <c:axId val="123317248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142756096"/>
+        <c:crossAx val="123315712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3086,11 +3102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142828288"/>
-        <c:axId val="142829824"/>
+        <c:axId val="123336192"/>
+        <c:axId val="123337728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142828288"/>
+        <c:axId val="123336192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +3115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142829824"/>
+        <c:crossAx val="123337728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3107,7 +3123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142829824"/>
+        <c:axId val="123337728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3118,7 +3134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142828288"/>
+        <c:crossAx val="123336192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3204,11 +3220,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142851072"/>
-        <c:axId val="142877440"/>
+        <c:axId val="121708544"/>
+        <c:axId val="121710080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142851072"/>
+        <c:axId val="121708544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142877440"/>
+        <c:crossAx val="121710080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3225,7 +3241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142877440"/>
+        <c:axId val="121710080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3237,13 +3253,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142851072"/>
+        <c:crossAx val="121708544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3269,7 +3286,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="204" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3303,7 +3320,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3314,7 +3331,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670551" cy="6293971"/>
+    <xdr:ext cx="8659091" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3341,7 +3358,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670551" cy="6293971"/>
+    <xdr:ext cx="8633114" cy="6269182"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3487,7 +3504,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6291263"/>
+    <xdr:ext cx="8633114" cy="6269182"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>

--- a/lammps_kvm_scale_updated.xlsx
+++ b/lammps_kvm_scale_updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="2820" windowWidth="23010" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="14085" yWindow="4755" windowWidth="23010" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="LJ-scale" sheetId="7" r:id="rId1"/>
@@ -682,7 +682,7 @@
             <c:v>VM 32c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cap="sq">
+            <a:ln w="25400" cap="sq">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="50000"/>
@@ -693,16 +693,16 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
@@ -798,7 +798,7 @@
             <c:v>VM 4c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cap="sq">
+            <a:ln w="25400" cap="sq">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -806,14 +806,14 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
@@ -909,7 +909,7 @@
             <c:v>Base 32c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="25400">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -919,16 +919,16 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
@@ -984,7 +984,7 @@
             <c:v>Base 4c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="25400">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -992,17 +992,25 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="5"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:val>
             <c:numRef>
               <c:f>('8 &amp;&amp; 1 PPN'!$S$5,'8 &amp;&amp; 1 PPN'!$S$9,'8 &amp;&amp; 1 PPN'!$S$13,'8 &amp;&amp; 1 PPN'!$S$17,'8 &amp;&amp; 1 PPN'!$S$21,'8 &amp;&amp; 1 PPN'!$S$25,'8 &amp;&amp; 1 PPN'!$S$29,'8 &amp;&amp; 1 PPN'!$S$33,'8 &amp;&amp; 1 PPN'!$S$37,'8 &amp;&amp; 1 PPN'!$S$41,'8 &amp;&amp; 1 PPN'!$S$45)</c:f>
@@ -1057,11 +1065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121571200"/>
-        <c:axId val="121577856"/>
+        <c:axId val="119994240"/>
+        <c:axId val="120533376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121571200"/>
+        <c:axId val="119994240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121577856"/>
+        <c:crossAx val="120533376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121577856"/>
+        <c:axId val="120533376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121571200"/>
+        <c:crossAx val="119994240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1199,7 +1207,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11420623672013462"/>
+          <c:y val="2.8286950098272871E-2"/>
+          <c:w val="0.87114648192485111"/>
+          <c:h val="0.8243341561088815"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1210,7 +1228,7 @@
             <c:v>VM 32c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cap="sq">
+            <a:ln w="25400" cap="sq">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="50000"/>
@@ -1220,16 +1238,16 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
@@ -1289,7 +1307,7 @@
             <c:v>VM 4c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cap="sq">
+            <a:ln w="25400" cap="sq">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1297,14 +1315,14 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
@@ -1364,7 +1382,7 @@
             <c:v>Base 32c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="25400">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -1374,16 +1392,16 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
@@ -1420,7 +1438,7 @@
             <c:v>Base 4c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="25400">
               <a:solidFill>
                 <a:schemeClr val="tx2">
                   <a:lumMod val="60000"/>
@@ -1431,17 +1449,17 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
@@ -1481,11 +1499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121527296"/>
-        <c:axId val="121533952"/>
+        <c:axId val="120491008"/>
+        <c:axId val="120497664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121527296"/>
+        <c:axId val="120491008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1513,7 +1531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121533952"/>
+        <c:crossAx val="120497664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1521,7 +1539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121533952"/>
+        <c:axId val="120497664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121527296"/>
+        <c:crossAx val="120491008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1581,7 +1599,20 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2465,6 +2496,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2701,11 +2733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118479872"/>
-        <c:axId val="118485760"/>
+        <c:axId val="118488064"/>
+        <c:axId val="120570624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118479872"/>
+        <c:axId val="118488064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2714,7 +2746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118485760"/>
+        <c:crossAx val="120570624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2722,7 +2754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118485760"/>
+        <c:axId val="120570624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,13 +2765,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118479872"/>
+        <c:crossAx val="118488064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2931,11 +2964,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123315712"/>
-        <c:axId val="123317248"/>
+        <c:axId val="122272768"/>
+        <c:axId val="122274560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123315712"/>
+        <c:axId val="122272768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +2977,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123317248"/>
+        <c:crossAx val="122274560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2952,7 +2985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123317248"/>
+        <c:axId val="122274560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,7 +2996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123315712"/>
+        <c:crossAx val="122272768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3102,11 +3135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123336192"/>
-        <c:axId val="123337728"/>
+        <c:axId val="122159104"/>
+        <c:axId val="122160640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123336192"/>
+        <c:axId val="122159104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123337728"/>
+        <c:crossAx val="122160640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3123,7 +3156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123337728"/>
+        <c:axId val="122160640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123336192"/>
+        <c:crossAx val="122159104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3220,11 +3253,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121708544"/>
-        <c:axId val="121710080"/>
+        <c:axId val="120661888"/>
+        <c:axId val="120663424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121708544"/>
+        <c:axId val="120661888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3233,7 +3266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121710080"/>
+        <c:crossAx val="120663424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3241,7 +3274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121710080"/>
+        <c:axId val="120663424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3253,14 +3286,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121708544"/>
+        <c:crossAx val="120661888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3274,7 +3306,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="204" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3286,7 +3318,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="204" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3331,7 +3363,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6286500"/>
+    <xdr:ext cx="8642537" cy="6279963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3358,7 +3390,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8633114" cy="6269182"/>
+    <xdr:ext cx="8670551" cy="6279963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3817,7 +3849,7 @@
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lammps_kvm_scale_updated.xlsx
+++ b/lammps_kvm_scale_updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="4755" windowWidth="23010" windowHeight="12540"/>
+    <workbookView xWindow="14085" yWindow="4785" windowWidth="23010" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="LJ-scale" sheetId="7" r:id="rId1"/>
@@ -682,7 +682,7 @@
             <c:v>VM 32c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="sq">
+            <a:ln w="44450" cap="sq">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="50000"/>
@@ -694,10 +694,10 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="x"/>
-            <c:size val="6"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="50000"/>
@@ -798,7 +798,7 @@
             <c:v>VM 4c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="sq">
+            <a:ln w="44450" cap="sq">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -807,10 +807,10 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="plus"/>
-            <c:size val="6"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -909,7 +909,7 @@
             <c:v>Base 32c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="44450">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -920,10 +920,10 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="6"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="75000"/>
@@ -984,7 +984,7 @@
             <c:v>Base 4c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="44450">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -993,24 +993,16 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="6"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-          </c:dPt>
           <c:val>
             <c:numRef>
               <c:f>('8 &amp;&amp; 1 PPN'!$S$5,'8 &amp;&amp; 1 PPN'!$S$9,'8 &amp;&amp; 1 PPN'!$S$13,'8 &amp;&amp; 1 PPN'!$S$17,'8 &amp;&amp; 1 PPN'!$S$21,'8 &amp;&amp; 1 PPN'!$S$25,'8 &amp;&amp; 1 PPN'!$S$29,'8 &amp;&amp; 1 PPN'!$S$33,'8 &amp;&amp; 1 PPN'!$S$37,'8 &amp;&amp; 1 PPN'!$S$41,'8 &amp;&amp; 1 PPN'!$S$45)</c:f>
@@ -1228,7 +1220,7 @@
             <c:v>VM 32c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="sq">
+            <a:ln w="44450" cap="sq">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="50000"/>
@@ -1239,10 +1231,10 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="x"/>
-            <c:size val="6"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="50000"/>
@@ -1307,7 +1299,7 @@
             <c:v>VM 4c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="sq">
+            <a:ln w="44450" cap="sq">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1316,10 +1308,10 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="plus"/>
-            <c:size val="6"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -1382,7 +1374,7 @@
             <c:v>Base 32c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="44450">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -1393,10 +1385,10 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="6"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="75000"/>
@@ -1438,7 +1430,7 @@
             <c:v>Base 4c/4g</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="44450">
               <a:solidFill>
                 <a:schemeClr val="tx2">
                   <a:lumMod val="60000"/>
@@ -1450,10 +1442,10 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="tx2">
                     <a:lumMod val="60000"/>
@@ -3003,6 +2995,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3330,7 +3323,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3482,7 +3475,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6291263"/>
+    <xdr:ext cx="8642537" cy="6279963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3849,7 +3842,7 @@
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lammps_kvm_scale_updated.xlsx
+++ b/lammps_kvm_scale_updated.xlsx
@@ -1120,14 +1120,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.1715175487794079E-2"/>
-              <c:y val="0.28264535795838741"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3311,7 +3304,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="169" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
